--- a/books_info.xlsx
+++ b/books_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,34 +560,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Python на примерах. Практика, практика и только практика</t>
+          <t>Python. Красивые задачи для начинающих</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Д. Кольцов</t>
+          <t>Павел Добряк</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>541 ₽</t>
+          <t>883 ₽</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Python для data science</t>
+          <t>Python на примерах. Практика, практика и только практика</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Юлий Васильев</t>
+          <t>Д. Кольцов</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1 666 ₽</t>
+          <t>541 ₽</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Python - это просто. Пошаговое руководство по программированию и анализу данных</t>
+          <t>Python для data science</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Нилаб Нисчал</t>
+          <t>Юлий Васильев</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>861 ₽</t>
+          <t>1 666 ₽</t>
         </is>
       </c>
     </row>
@@ -645,119 +645,119 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Python. Красивые задачи для начинающих</t>
+          <t>Python для финансистов. Базовые концепции</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Павел Добряк</t>
+          <t>Ив Хилпиш</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>883 ₽</t>
+          <t>2 030 ₽</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Python для финансистов. Базовые концепции</t>
+          <t>Python - это просто. Пошаговое руководство по программированию и анализу данных</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ив Хилпиш</t>
+          <t>Нилаб Нисчал</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2 030 ₽</t>
+          <t>861 ₽</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Python для детей. Курс для начинающих</t>
+          <t>Python. К вершинам мастерства. Локаничное и эффективное программирование</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Александр Банкрашков</t>
+          <t>Лучано Рамальо</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>731 ₽</t>
+          <t>4 179 ₽</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Python для сложных задач: наука о данных и машинное обучение</t>
+          <t>Python, Django и Bootstrap для начинающих</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Дж. Вандер Плас</t>
+          <t>Анатолий Постолит</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1 959 ₽</t>
+          <t>894 ₽</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Python: быстрый старт</t>
+          <t>Python. Экспресс-курс. 3-е издание</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ду Чан</t>
+          <t>Наоми Седер</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1 063 ₽</t>
+          <t>2 030 ₽</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Python. Экспресс-курс. 3-е издание</t>
+          <t>Python: быстрый старт</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Наоми Седер</t>
+          <t>Ду Чан</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2 030 ₽</t>
+          <t>1 063 ₽</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Python. К вершинам мастерства. Локаничное и эффективное программирование</t>
+          <t>Python для сложных задач: наука о данных и машинное обучение</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Лучано Рамальо</t>
+          <t>Дж. Вандер Плас</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4 179 ₽</t>
+          <t>1 959 ₽</t>
         </is>
       </c>
     </row>
@@ -781,17 +781,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Python, Django и Bootstrap для начинающих</t>
+          <t>Python. 12 уроков для начинающих</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Анатолий Постолит</t>
+          <t>Павел Добряк</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>894 ₽</t>
+          <t>615 ₽</t>
         </is>
       </c>
     </row>
@@ -815,85 +815,85 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Python. 12 уроков для начинающих</t>
+          <t>Python. Создаем программы и игры</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Павел Добряк</t>
+          <t>Д. Кольцов</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>615 ₽</t>
+          <t>629 ₽</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Python. Создаем программы и игры</t>
+          <t>Python для сетевых инженеров. Автоматизация сети, программирование и DevOps</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Д. Кольцов</t>
+          <t>Эрик Чоу</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>629 ₽</t>
+          <t>3 766 ₽</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Python для сетевых инженеров. Автоматизация сети, программирование и DevOps</t>
+          <t>Python для гиков</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Эрик Чоу</t>
+          <t>Мухаммад Азиф</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3 766 ₽</t>
+          <t>1 006 ₽</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Python для гиков</t>
+          <t>Python. Исчерпывающее руководство</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Мухаммад Азиф</t>
+          <t>Дэвид Бизли</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1 006 ₽</t>
+          <t>2 211 ₽</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Python. Исчерпывающее руководство</t>
+          <t>Python. Лучшие практики и инструменты</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Дэвид Бизли</t>
+          <t>Тарек Зиаде, Михал Яворски</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2 211 ₽</t>
+          <t>4 046 ₽</t>
         </is>
       </c>
     </row>
@@ -978,206 +978,206 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4 046 ₽</t>
+          <t>3 176 ₽</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Python. Лучшие практики и инструменты</t>
+          <t>Python. Разработка на основе тестирования</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Тарек Зиаде, Михал Яворски</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 169 ₽</t>
+          <t>762 ₽</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Python для всех</t>
+          <t>Python для юных программистов</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Чарльз Р. Северанс</t>
+          <t>Денис Голиков</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>762 ₽</t>
+          <t>1 106 ₽</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Python для юных программистов</t>
+          <t>Python за 7 дней. Краткий курс для начинающих</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Денис Голиков</t>
+          <t>Эндрю Парк</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3 176 ₽</t>
+          <t>2 527 ₽</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Python. Разработка на основе тестирования</t>
+          <t>Python и DevOps: Ключ к автоматизации Linux</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Ной Гифт</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>340 ₽</t>
+          <t>2 674 ₽</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Python Создаем программы и игры</t>
+          <t>Python и машинное обучение</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Д. Кольцов</t>
+          <t>Себастьян Рашка</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2 527 ₽</t>
+          <t>1 509 ₽</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Python и DevOps: Ключ к автоматизации Linux</t>
+          <t>Python 3 и PyQt 6. Разработка приложений</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ной Гифт</t>
+          <t>Владимир Дронов, Николай Прохоренок</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1 106 ₽</t>
+          <t>550 ₽</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Python за 7 дней. Краткий курс для начинающих</t>
+          <t>Python. Великое программирование в Minecraft</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Эндрю Парк</t>
+          <t>Андрей Корягин</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2 674 ₽</t>
+          <t>1 671 ₽</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Python и машинное обучение</t>
+          <t>Python для детей</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Себастьян Рашка</t>
+          <t>Ханс-Георг Шуманн</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1 509 ₽</t>
+          <t>1 169 ₽</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Python 3 и PyQt 6. Разработка приложений</t>
+          <t>Python для всех</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Владимир Дронов, Николай Прохоренок</t>
+          <t>Чарльз Р. Северанс</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1 169 ₽</t>
+          <t>1 274 ₽</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Python. Сборник упражнений. Введение в язык Python с задачами и решениями</t>
+          <t>Python. Непрерывная интеграция и доставка</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Брайан Стивенсон</t>
+          <t>Мориц Ленц</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>550 ₽</t>
+          <t>959 ₽</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Python. Великое программирование в Minecraft</t>
+          <t>Python на практике</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Андрей Корягин</t>
+          <t>Александр Киселев</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1 671 ₽</t>
+          <t>1 169 ₽</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Python для детей</t>
+          <t>Python 3. Самое необходимое. 2-е издание, переработанное и дополненное</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ханс-Георг Шуманн</t>
+          <t>Николай Прохоренок</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1189,29 +1189,29 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Python. Чистый код для продолжающих</t>
+          <t>Python. Сборник упражнений. Введение в язык Python с задачами и решениями</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Брайан Стивенсон</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1 274 ₽</t>
+          <t>959 ₽</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Python. Непрерывная интеграция и доставка</t>
+          <t>Python. Чистый код для продолжающих</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Мориц Ленц</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1223,12 +1223,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Python на практике</t>
+          <t>Python. Великое программирование в Minecraft</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Александр Киселев</t>
+          <t>Андрей Корягин, Алиса Корягина</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1240,12 +1240,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Python 3. Самое необходимое. 2-е издание, переработанное и дополненное</t>
+          <t>Python. Погружение в математику с Minecraft</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Николай Прохоренок</t>
+          <t>Андрей Корягин, Алиса Корягина</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1257,697 +1257,697 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Python для детей. Самоучитель по программированию</t>
+          <t>Программирование на Python в примерах и задачах</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Джейсон Бриггс</t>
+          <t>Алексей Васильев</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>890 ₽</t>
+          <t>1 306 ₽</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Python. Великое программирование в Minecraft</t>
+          <t>Справочник PYTHON. Кратко, быстро, под рукой</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Андрей Корягин, Алиса Корягина</t>
+          <t>Д. Кольцов</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>959 ₽</t>
+          <t>490 ₽</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Python. Погружение в математику с Minecraft</t>
+          <t>Начинаем программировать на Python. 5-е издание</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Андрей Корягин, Алиса Корягина</t>
+          <t>Тони Гэддис</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>959 ₽</t>
+          <t>2 012 ₽</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Программирование на Python в примерах и задачах</t>
+          <t>Программирование на Python с нуля. Учимся думать как программисты, осваиваем логику языка и пишем первый код!</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Алексей Васильев</t>
+          <t>Патриша Фостер</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1 306 ₽</t>
+          <t>994 ₽</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Справочник PYTHON. Кратко, быстро, под рукой</t>
+          <t>Высокопроизводительные Python-приложения. Эффективное программирование на практике</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Д. Кольцов</t>
+          <t>Миша Горелик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>490 ₽</t>
+          <t>1 731 ₽</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Начинаем программировать на Python. 5-е издание</t>
+          <t>Изучаем программирование на Python</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Тони Гэддис</t>
+          <t>Пол Бэрри</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2 012 ₽</t>
+          <t>1 825 ₽</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Программирование на Python с нуля. Учимся думать как программисты, осваиваем логику языка и пишем первый код!</t>
+          <t>Миссия: Python. Создаем игры вместе с детьми</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Патриша Фостер</t>
+          <t>Шон Макманус</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>994 ₽</t>
+          <t>1 544 ₽</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Высокопроизводительные Python-приложения. Эффективное программирование на практике</t>
+          <t>Учим Python, делая крутые игры</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Миша Горелик</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1 731 ₽</t>
+          <t>1 044 ₽</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Миссия: Python. Создаем игры вместе с детьми</t>
+          <t>Программируем с детьми. Создайте 50 крутых игр на Python</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Шон Макманус</t>
+          <t>Адриана Таке</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1 544 ₽</t>
+          <t>1 356 ₽</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Изучаем программирование на Python</t>
+          <t>Легкий способ выучить Python 3 еще глубже</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Пол Бэрри</t>
+          <t>Зед А. Шоу</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1 825 ₽</t>
+          <t>994 ₽</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Учим Python, делая крутые игры</t>
+          <t>Изучаем Python: программирование игр, визуализация данных, веб-приложения</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Эрик Мэтиз</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1 044 ₽</t>
+          <t>1 645 ₽</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Программируем с детьми. Создайте 50 крутых игр на Python</t>
+          <t>Легкий способ выучить Python 3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Адриана Таке</t>
+          <t>Зед А. Шоу</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1 356 ₽</t>
+          <t>994 ₽</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Легкий способ выучить Python 3 еще глубже</t>
+          <t>40 алгоритмов, которые должен знать каждый программист на Python</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Зед А. Шоу</t>
+          <t>Имран Ахмад</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>994 ₽</t>
+          <t>1 925 ₽</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Изучаем Python: программирование игр, визуализация данных, веб-приложения</t>
+          <t>Практическая статистика для специалистов Data Science. 50+ важнейших понятий с использованием R и Python</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Эрик Мэтиз</t>
+          <t>Питер Брюс</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1 645 ₽</t>
+          <t>922 ₽</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Легкий способ выучить Python 3</t>
+          <t>Простой Python. Современный стиль программирования</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Зед А. Шоу</t>
+          <t>Билл Любанович</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>994 ₽</t>
+          <t>2 016 ₽</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>40 алгоритмов, которые должен знать каждый программист на Python</t>
+          <t>Мама, не отвлекай. Я Python учу!</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Имран Ахмад</t>
+          <t>Игорь Лазаревский</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1 925 ₽</t>
+          <t>973 ₽</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Практическая статистика для специалистов Data Science. 50+ важнейших понятий с использованием R и Python</t>
+          <t>Black Hat Python: программирование для хакеров и пентестеров, 2-е изд</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Питер Брюс</t>
+          <t>Джастин Зейтц</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>922 ₽</t>
+          <t>1 666 ₽</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Простой Python. Современный стиль программирования</t>
+          <t>Объектно-ориентированное программирование с помощью Python</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Билл Любанович</t>
+          <t>Ирв Кальб</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2 016 ₽</t>
+          <t>1 638 ₽</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Мама, не отвлекай. Я Python учу!</t>
+          <t>Знакомьтесь, Python. Секреты профессии</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Игорь Лазаревский</t>
+          <t>Евгений Павлов</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>973 ₽</t>
+          <t>731 ₽</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Black Hat Python: программирование для хакеров и пентестеров, 2-е изд</t>
+          <t>Программируем на Python</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Джастин Зейтц</t>
+          <t>Майкл Доусон</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1 666 ₽</t>
+          <t>1 396 ₽</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Объектно-ориентированное программирование с помощью Python</t>
+          <t>Чистый Python. Тонкости программирования для профи</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ирв Кальб</t>
+          <t>Дэн Бейдер</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1 638 ₽</t>
+          <t>1 527 ₽</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Чистый Python. Тонкости программирования для профи</t>
+          <t>Знакомство с Python</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Дэн Бейдер</t>
+          <t>Дэн Бейдер, Дэвид Эймос, Джоанна Яблонски</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1 527 ₽</t>
+          <t>2 114 ₽</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Знакомьтесь, Python. Секреты профессии</t>
+          <t>Сетевое программирование на Python</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Евгений Павлов</t>
+          <t>Джон Галбрейт</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>731 ₽</t>
+          <t>1 263 ₽</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Программируем на Python</t>
+          <t>Основы искусственного интеллекта в примерах на Python. Самоучитель</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Майкл Доусон</t>
+          <t>Анатолий Постолит</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1 396 ₽</t>
+          <t>1 381 ₽</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Знакомство с Python</t>
+          <t>Алгоритмический тренинг. Решения практических задач на Python и C++</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Дэн Бейдер, Дэвид Эймос, Джоанна Яблонски</t>
+          <t>Максим Иванов</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2 114 ₽</t>
+          <t>861 ₽</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Сетевое программирование на Python</t>
+          <t>Внутри CPYTHON: гид по интерпретатору Python</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Джон Галбрейт</t>
+          <t>Этнони Шоу</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1 263 ₽</t>
+          <t>1 946 ₽</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Основы искусственного интеллекта в примерах на Python. Самоучитель</t>
+          <t>Основы Python для Data Science</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Анатолий Постолит</t>
+          <t>Кеннеди Берман</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1 381 ₽</t>
+          <t>2 086 ₽</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Алгоритмический тренинг. Решения практических задач на Python и C++</t>
+          <t>Django 3.0. Практика создания веб-сайтов на Python</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Максим Иванов</t>
+          <t>Владимир Дронов</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>861 ₽</t>
+          <t>1 342 ₽</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Внутри CPYTHON: гид по интерпретатору Python</t>
+          <t>Основы Python. Научитесь думать как программист</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Этнони Шоу</t>
+          <t>Аллен Б. Дауни</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1 946 ₽</t>
+          <t>1 104 ₽</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Основы Python для Data Science</t>
+          <t>Asyncio и конкурентное программирование на Python</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Кеннеди Берман</t>
+          <t>Мэттью Фаулер</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2 086 ₽</t>
+          <t>2 841 ₽</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Основы Python. Научитесь думать как программист</t>
+          <t>Математические алгоритмы для программистов. 3D-графика, машинное обучение и моделирование на Python</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Аллен Б. Дауни</t>
+          <t>Пол Орланд</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1 104 ₽</t>
+          <t>3 430 ₽</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Django 3.0. Практика создания веб-сайтов на Python</t>
+          <t>Квантовая химия и квантовые вычисления с примерами на Python</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Владимир Дронов</t>
+          <t>Ален Чанс, Кипер Шарки</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1 342 ₽</t>
+          <t>2 507 ₽</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Asyncio и конкурентное программирование на Python</t>
+          <t>Анализ социальных медиа на Python</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Мэттью Фаулер</t>
+          <t>Марко Бонцанини</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2 841 ₽</t>
+          <t>3 203 ₽</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>"Непрактичный" Python: занимательные проекты для тех, кто хочет поумнеть</t>
+          <t>Объектно-ориентированный Python</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ли Воган</t>
+          <t>Стивен Ф. Лотт, Дасти Филлипс</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>984 ₽</t>
+          <t>755 ₽</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Математические алгоритмы для программистов. 3D-графика, машинное обучение и моделирование на Python</t>
+          <t>Компьютерное зрение на Python. Первые шаги</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Пол Орланд</t>
+          <t>Эдуард Шакирьянов</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>3 430 ₽</t>
+          <t>1 002 ₽</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Квантовая химия и квантовые вычисления с примерами на Python</t>
+          <t>Начнем.Python. Просто о сложном</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ален Чанс, Кипер Шарки</t>
+          <t>С. Иванов</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2 507 ₽</t>
+          <t>984 ₽</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Грокаем глубокое обучение</t>
+          <t>Основы программирования на языке Python</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Эндрю Траск</t>
+          <t>Дмитрий Златопольский</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1 189 ₽</t>
+          <t>2 674 ₽</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Компьютерное зрение на Python. Первые шаги</t>
+          <t>"Непрактичный" Python: занимательные проекты для тех, кто хочет поумнеть</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Эдуард Шакирьянов</t>
+          <t>Ли Воган</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>755 ₽</t>
+          <t>604 ₽</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Начнем.Python. Просто о сложном</t>
+          <t>Цифровая обработка сигналов на языке Python (м) Дауни</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>С. Иванов</t>
+          <t>Аллен Б. Дауни</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1 002 ₽</t>
+          <t>1 062 ₽</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Основы программирования на языке Python</t>
+          <t>Биоинформатика с PYTHON. Книга рецептов</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Дмитрий Златопольский</t>
+          <t>Тиаго Антао</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2 674 ₽</t>
+          <t>1 205 ₽</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Биоинформатика с PYTHON. Книга рецептов</t>
+          <t>Алгоритмы обучения с подкреплением на Python. Описание и разработка алгоритмов искусственного интелекта</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Тиаго Антао</t>
+          <t>Андреа Лонца</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>604 ₽</t>
+          <t>541 ₽</t>
         </is>
       </c>
     </row>
@@ -1964,70 +1964,70 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>894 ₽</t>
+          <t>1 677 ₽</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Цифровая обработка сигналов на языке Python (м) Дауни</t>
+          <t>Крупномасштабное машинное обучение вместе с Python</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Аллен Б. Дауни</t>
+          <t>Альберто Боскетти, Лука Массарон, Бастиан Шарден</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2 039 ₽</t>
+          <t>1 946 ₽</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Надежный Python</t>
+          <t>Обработка данных на Python. Data Wrangling и  Data Quality</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Патрик Виафоре</t>
+          <t>Сьюзен Макгрегор</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1 864 ₽</t>
+          <t>Не указана</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Алгоритмы обучения с подкреплением на Python. Описание и разработка алгоритмов искусственного интелекта</t>
+          <t>Начинаем программировать на Python. 4-е издание</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Андреа Лонца</t>
+          <t>Тони Гэддис</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1 062 ₽</t>
+          <t>Не указана</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Программирование на Python. Первые шаги</t>
+          <t>Робототехника. Управление квадрокоптером: Квадрокоптер Tello. Программирование на языке Python. 8-11 классы.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>А. Щерба</t>
+          <t>Денис Копосов</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2039,12 +2039,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Крупномасштабное машинное обучение вместе с Python</t>
+          <t>Интерпретируемое машинное обучение на Python</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Альберто Боскетти, Лука Массарон, Бастиан Шарден</t>
+          <t>Серг Масис</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2056,12 +2056,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Обработка данных на Python. Data Wrangling и  Data Quality</t>
+          <t>Алгоритмы. С примерами на Python</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Сьюзен Макгрегор</t>
+          <t>Джордж Хайнеман</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2073,425 +2073,425 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Робототехника. Управление квадрокоптером: Квадрокоптер Tello. Программирование на языке Python. 8-11 классы.</t>
+          <t>Простой Python просто с нуля</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Денис Копосов</t>
+          <t>Рик Гаско</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>541 ₽</t>
+          <t>1 504 ₽</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Интерпретируемое машинное обучение на Python</t>
+          <t>Структуры данных в Python. Начальный курс</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Серг Масис</t>
+          <t>Дональд Р. Шихи</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1 677 ₽</t>
+          <t>1 420 ₽</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Алгоритмы. С примерами на Python</t>
+          <t>Скраппинг веб-сайтов с помощью Python</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Джордж Хайнеман</t>
+          <t>Райан Митчелл</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1 946 ₽</t>
+          <t>2 039 ₽</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Простой Python просто с нуля</t>
+          <t>Программирование GPU при помощи Python и CUDA</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Рик Гаско</t>
+          <t>Бриан Тоуманнен</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1 504 ₽</t>
+          <t>2 209 ₽</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Структуры данных в Python. Начальный курс</t>
+          <t>Прогнозное моделирование в IBM SPSS Statistics, R и Python Метод деревьев решений и случайный лес</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Дональд Р. Шихи</t>
+          <t>Артем Груздев</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3 203 ₽</t>
+          <t>2 507 ₽</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Объектно-ориентированный Python</t>
+          <t>Профессиональная разработка на Python</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Стивен Ф. Лотт, Дасти Филлипс</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1 420 ₽</t>
+          <t>2 172 ₽</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Скраппинг веб-сайтов с помощью Python</t>
+          <t>Использование языка Python в теории вероятностей. Учебник</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Райан Митчелл</t>
+          <t>Сергей Криволапов</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2 507 ₽</t>
+          <t>894 ₽</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Программирование GPU при помощи Python и CUDA</t>
+          <t>Эволюционные нейросети на языке Python</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Бриан Тоуманнен</t>
+          <t>Ярослав Омельяненко</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2 172 ₽</t>
+          <t>1 671 ₽</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Анализ социальных медиа на Python</t>
+          <t>Генетические алгоритмы на Python. Применение генетических алгоритмов к решению задач глубокого обучения и искуственного интеллекта</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Марко Бонцанини</t>
+          <t>Эйял Вирсански</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2 039 ₽</t>
+          <t>2 172 ₽</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Профессиональная разработка на Python</t>
+          <t>Аналитика в Power BI с помощью R и Python</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Розалин Уэйд</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2 172 ₽</t>
+          <t>2 506 ₽</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Аналитика в Power BI с помощью R и Python</t>
+          <t>Pyomo. Моделирование оптимизации на Python</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Розалин Уэйд</t>
+          <t>Майкл Л. Бинум, Габриэль А. Хакебейл, Уильям Э. Харт</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2 506 ₽</t>
+          <t>2 355 ₽</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Использование языка Python в теории вероятностей. Учебник</t>
+          <t>Объяснимые модели искусственного интеллекта на Python</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Сергей Криволапов</t>
+          <t>Прадипта Мишра</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1 671 ₽</t>
+          <t>920 ₽</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Прогнозное моделирование в IBM SPSS Statistics, R и Python Метод деревьев решений и случайный лес</t>
+          <t>Разработка веб-приложений с использованием Flask на языке Python</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Артем Груздев</t>
+          <t>Мигель Гринберг</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2 172 ₽</t>
+          <t>4 012 ₽</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Pyomo. Моделирование оптимизации на Python</t>
+          <t>Надежный Python</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Майкл Л. Бинум, Габриэль А. Хакебейл, Уильям Э. Харт</t>
+          <t>Патрик Виафоре</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2 355 ₽</t>
+          <t>624 ₽</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Объяснимые модели искусственного интеллекта на Python</t>
+          <t>Изучаем основы Python. Практический курс для дата-аналитиков</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Прадипта Мишра</t>
+          <t>Павел Меликов</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>920 ₽</t>
+          <t>1 900 ₽</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Эволюционные нейросети на языке Python</t>
+          <t>Байесовский анализ на Python. Введение в статистическое моделирование и вероятностное программирование с использованием PyMC3 и ArviZ</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ярослав Омельяненко</t>
+          <t>Освальдо Мартин</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>890 ₽</t>
+          <t>1 565 ₽</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Изучаем основы Python. Практический курс для дата-аналитиков</t>
+          <t>Twisted из первых рук. Событийное и асинхронное программирование на Python</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Павел Меликов</t>
+          <t>Моше Задка</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1 205 ₽</t>
+          <t>2 786 ₽</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Генетические алгоритмы на Python. Применение генетических алгоритмов к решению задач глубокого обучения и искуственного интеллекта</t>
+          <t>Изучаем квантовые вычисления на Python и Q#</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Эйял Вирсански</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>835 ₽</t>
+          <t>890 ₽</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Глубокое обучение с подкреплением. Теория и практика на языке Python</t>
+          <t>Практическое введение в решение дифференциальных уравнений в Python</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Лаура Грессер</t>
+          <t>Николай Ершов</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>4 012 ₽</t>
+          <t>835 ₽</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Практическое введение в решение дифференциальных уравнений в Python</t>
+          <t>Устройство и программирование автономных роботов. Проекты на PYTHON и RASPBERRY PI</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Николай Ершов</t>
+          <t>Дэнни Стейпл</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1 565 ₽</t>
+          <t>2 674 ₽</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Устройство и программирование автономных роботов. Проекты на PYTHON и RASPBERRY PI</t>
+          <t>Программирование на Python. Первые шаги</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Дэнни Стейпл</t>
+          <t>А. Щерба</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1 900 ₽</t>
+          <t>1 671 ₽</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Байесовский анализ на Python. Введение в статистическое моделирование и вероятностное программирование с использованием PyMC3 и ArviZ</t>
+          <t>Глубокое обучение с подкреплением. Теория и практика на языке Python</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Освальдо Мартин</t>
+          <t>Лаура Грессер</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>624 ₽</t>
+          <t>4 012 ₽</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Twisted из первых рук. Событийное и асинхронное программирование на Python</t>
+          <t>Секреты Python Pro</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Моше Задка</t>
+          <t>Д. Хиллард</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2 674 ₽</t>
+          <t>1 189 ₽</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Разработка веб-приложений с использованием Flask на языке Python</t>
+          <t>Простой Python для опытных программистов</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Мигель Гринберг</t>
+          <t>Рик Гаско</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2 786 ₽</t>
+          <t>1 399 ₽</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Изучаем квантовые вычисления на Python и Q#</t>
+          <t>Предварительная подготовка данных в PYTHON. Том 1. Инструменты и валидация</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Артем Груздев</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1 671 ₽</t>
+          <t>688 ₽</t>
         </is>
       </c>
     </row>
@@ -2508,53 +2508,53 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4 012 ₽</t>
+          <t>Не указана</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Секреты Python Pro</t>
+          <t>Программирование компьютерного зрения на Python</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Д. Хиллард</t>
+          <t>Ян Солем</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1 399 ₽</t>
+          <t>Не указана</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Простой Python для опытных программистов</t>
+          <t>Разработка геоприложений на языке Python</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Рик Гаско</t>
+          <t>Эрик Вестра</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>688 ₽</t>
+          <t>Не указана</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Секреты Python: 59 рекомендаций по написанию эффективного кода</t>
+          <t>Программирование. Python. C++. Часть 4. Учебное пособие</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>А.Г. Гузикевич, Бретт Слаткин</t>
+          <t>Константин Поляков</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2566,12 +2566,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Начинаем программировать на Python. 4-е издание</t>
+          <t>Изучение робототехники с помощью Python</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Тони Гэддис</t>
+          <t>Джозеф Лентин</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2583,12 +2583,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Django 2.1 Практика создания веб-сайтов на Python. Модели, контроллеры и шаблоны. Разграничение доступа. Аутентификация через социальные сети. Вывод миниатюр. Bootstrap. Captcha. Angular. Bbcode. Rest</t>
+          <t>Вероятностное программирование на Python: байесовский вывод и алгоритмы</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Владимир Дронов</t>
+          <t>Кэмерон Дэвидсон-Пайлон</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2600,12 +2600,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Предварительная подготовка данных в PYTHON. Том 1. Инструменты и валидация</t>
+          <t>Изучение сложных систем с помощью Python</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Артем Груздев</t>
+          <t>Аллен Б. Дауни</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2617,12 +2617,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Программирование компьютерного зрения на Python</t>
+          <t>Задачи по дискретной математике с алгоритмами на Python</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ян Солем</t>
+          <t>Сергей Борзунов, Сергей Кургалин</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2634,12 +2634,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Задачи по дискретной математике с алгоритмами на Python</t>
+          <t>Глубокое обучение на Python</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Сергей Борзунов, Сергей Кургалин</t>
+          <t>Франсуа Шолле</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2651,12 +2651,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Изучение робототехники с помощью Python</t>
+          <t>Секреты Python: 59 рекомендаций по написанию эффективного кода</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Джозеф Лентин</t>
+          <t>А.Г. Гузикевич, Бретт Слаткин</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2668,12 +2668,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Вероятностное программирование на Python: байесовский вывод и алгоритмы</t>
+          <t>Django 2.1 Практика создания веб-сайтов на Python. Модели, контроллеры и шаблоны. Разграничение доступа. Аутентификация через социальные сети. Вывод миниатюр. Bootstrap. Captcha. Angular. Bbcode. Rest</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Кэмерон Дэвидсон-Пайлон</t>
+          <t>Владимир Дронов</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2685,12 +2685,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Изучение сложных систем с помощью Python</t>
+          <t>Научное программирование на Python</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Аллен Б. Дауни</t>
+          <t>Кейси Хилл</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2702,12 +2702,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Разработка геоприложений на языке Python</t>
+          <t>Трехмерное глубокое обучение на PYTHON</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Эрик Вестра</t>
+          <t>Лилит Йольан, Ксудонг Ма, Вишах Хегде</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2719,12 +2719,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Математика на Python. Часть I. Элементы линейной алгебры и аналитической геометрии. Учебно-методическое пособие</t>
+          <t>Обучение с подкреплением на PyTorch: сборник рецептов. Свыше 60 рецептов проектирования, разработки и развертывания самообучающихся моделей на Python</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Анна Балджы</t>
+          <t>Юси Лю</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2736,12 +2736,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Программирование. Python. C++. Часть 4. Учебное пособие</t>
+          <t>Предварительная подготовка данных в PYTHON. Том 2. План, примеры и метрики качества</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Константин Поляков</t>
+          <t>Артем Груздев</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2753,12 +2753,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Научное программирование на Python</t>
+          <t>Грокаем глубокое обучение</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Кейси Хилл</t>
+          <t>Эндрю Траск</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2770,12 +2770,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Глубокое обучение на Python</t>
+          <t>Стержень гелевый "InColor Purple Python" синий, ErichKrause</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Франсуа Шолле</t>
+          <t>Стержни для ручек</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2787,12 +2787,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Трехмерное глубокое обучение на PYTHON</t>
+          <t>Computer Science для программиста-самоучки. Все что нужно знать о структурах данных и алгоритмах</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Лилит Йольан, Ксудонг Ма, Вишах Хегде</t>
+          <t>Кори Альтхофф</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2804,12 +2804,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Обучение с подкреплением на PyTorch: сборник рецептов. Свыше 60 рецептов проектирования, разработки и развертывания самообучающихся моделей на Python</t>
+          <t>Python. Создай свою первую игру с нуля! Самоучитель в примерах</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Юси Лю</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2821,12 +2821,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Предварительная подготовка данных в PYTHON. Том 2. План, примеры и метрики качества</t>
+          <t>Python для детей. Курс для начинающих</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Артем Груздев</t>
+          <t>Александр Банкрашков</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2838,12 +2838,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Стержень гелевый "InColor Purple Python" синий, ErichKrause</t>
+          <t>Python. Книга Рецептов</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Стержни для ручек</t>
+          <t>Дэвид Бизли</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2855,12 +2855,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Computer Science для программиста-самоучки. Все что нужно знать о структурах данных и алгоритмах</t>
+          <t>Python 3. Самое необходимое</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Кори Альтхофф</t>
+          <t>Владимир Дронов, Николай Прохоренок</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Python. Создай свою первую игру с нуля! Самоучитель в примерах</t>
+          <t>Python, Django и PyCharm для начинающих</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Анатолий Постолит</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2889,12 +2889,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Python. Книга Рецептов</t>
+          <t>Python. Карманный справочник</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Дэвид Бизли</t>
+          <t>Марк Лутц</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2906,12 +2906,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Python 3. Самое необходимое</t>
+          <t>Python на примерах. Практический курс по программированию, 2-е издание</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Владимир Дронов, Николай Прохоренок</t>
+          <t>А.Н. Васильев</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2923,12 +2923,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Python, Django и PyCharm для начинающих</t>
+          <t>Python Справочник Полное описание языка (3 изд.) Мартелли</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Анатолий Постолит</t>
+          <t>Алекс Мартелли</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2940,12 +2940,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Python. Карманный справочник</t>
+          <t>Python. Лучшие практики и инструменты</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Марк Лутц</t>
+          <t>Михал Яворски</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2957,12 +2957,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Python Создаем программы и игры</t>
+          <t>Python на примерах. Практический курс по программированию</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Д. Кольцов</t>
+          <t>А.Н. Васильев</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2974,12 +2974,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Python на примерах. Практический курс по программированию, 2-е издание</t>
+          <t>Python. Великое программирование в Minecraft</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>А.Н. Васильев</t>
+          <t>Андрей Корягин</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2991,12 +2991,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Python. Лучшие практики и инструменты</t>
+          <t>Python и машинное обучение. Машинное и глубокое обучение с использованием Python, scikit-learn и TensorFlow</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Михал Яворски</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3008,12 +3008,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Python Справочник Полное описание языка (3 изд.) Мартелли</t>
+          <t>Python Создаем программы и игры</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Алекс Мартелли</t>
+          <t>Д. Кольцов</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3025,12 +3025,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Python на примерах. Практический курс по программированию</t>
+          <t>Python 3 и PyQt 5. Разработка приложений</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>А.Н. Васильев</t>
+          <t>Николай Прохоренок</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3042,12 +3042,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Python. Великое программирование в Minecraft</t>
+          <t>Python для детей и родителей</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Андрей Корягин</t>
+          <t>Михаил Райтман</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3059,12 +3059,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Python и машинное обучение. Машинное и глубокое обучение с использованием Python, scikit-learn и TensorFlow</t>
+          <t>Python для хакеров. Нетривиальные задачи и проекты</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Ли Воган</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3076,12 +3076,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Python для детей и родителей</t>
+          <t>Python для программирования криптовалют</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Михаил Райтман</t>
+          <t>Джимми Сонг</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3093,12 +3093,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Python для хакеров. Нетривиальные задачи и проекты</t>
+          <t>Машинное обучение с помощью Python для всех. Руководство по созданию систем машинного обучения: от основ до мощных инструментов</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ли Воган</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3110,12 +3110,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Python 3 и PyQt 5. Разработка приложений</t>
+          <t>Программирование на Python для начинающих</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Николай Прохоренок</t>
+          <t>Майк МакГрат</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3127,12 +3127,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Python для программирования криптовалют</t>
+          <t>Большая книга проектов Python</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Джимми Сонг</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3144,7 +3144,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Машинное обучение с помощью Python для всех. Руководство по созданию систем машинного обучения: от основ до мощных инструментов</t>
+          <t>Простой Python. Современный стиль программирования</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3161,12 +3161,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Программирование на Python для начинающих</t>
+          <t>Глубокое обучение на Python</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Майк МакГрат</t>
+          <t>Франсуа Шолле</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3178,12 +3178,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Большая книга проектов Python</t>
+          <t>Паттерны разработки на Python: TDD, DDD и событийно-ориентированная архитектура</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Гарри Персиваль</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3195,12 +3195,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Простой Python. Современный стиль программирования</t>
+          <t>GPT-3: программирование на PYTHON в примерах</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Эль Амри Аймен</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Глубокое обучение на Python</t>
+          <t>Изучаем Python. Программирование игр, визуализация данных, веб-приложения</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Франсуа Шолле</t>
+          <t>Эрик Мэтиз</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3229,12 +3229,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Паттерны разработки на Python: TDD, DDD и событийно-ориентированная архитектура</t>
+          <t>Начинаем программировать на Python. 4-е издание</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Гарри Персиваль</t>
+          <t>Тони Гэддис</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3246,12 +3246,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Изучаем Python. Программирование игр, визуализация данных, веб-приложения</t>
+          <t>Однострочники Python: лаконичный и содержательный код</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Эрик Мэтиз</t>
+          <t>Кристиан Майер</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3263,12 +3263,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>GPT-3: программирование на PYTHON в примерах</t>
+          <t>Автостопом по Python</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Эль Амри Аймен</t>
+          <t>Кеннет Ритц, Таня Шлюссер</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3280,12 +3280,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Однострочники Python: лаконичный и содержательный код</t>
+          <t>Алгоритмы Data Science и их практическая реализация на Python: учебное пособие</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Кристиан Майер</t>
+          <t>Андрей Протодьяконов, Петр Пылов, Владимир Садовников</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3297,12 +3297,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Начинаем программировать на Python. 4-е издание</t>
+          <t>Язык программирования Python: практикум. Учебное пособие</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Тони Гэддис</t>
+          <t>Роман Жуков</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3314,12 +3314,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Автостопом по Python</t>
+          <t>Анализ поведенческих данных на R и Python</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Кеннет Ритц, Таня Шлюссер</t>
+          <t>Флоран Бюиссон</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3331,12 +3331,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Алгоритмы Data Science и их практическая реализация на Python: учебное пособие</t>
+          <t>Как устроен Python. Гид для разработчиков, программистов и интересующихся</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Андрей Протодьяконов, Петр Пылов, Владимир Садовников</t>
+          <t>Мэтт Харрисон</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3348,12 +3348,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Язык программирования Python: практикум. Учебное пособие</t>
+          <t>Стандартная библиотека Python 3: справочник с примерами, 2-е издание</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Роман Жуков</t>
+          <t>Даг Хеллман</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3365,12 +3365,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Программирование на Python. Иллюстрированное руководство для детей</t>
+          <t>Вычислительная математика на смартфонах, коммуникаторах и ноутбуках с использованием программных сред Python: Учебное пособие.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Кэрол Вордерман</t>
+          <t>Игорь Соловьев</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3382,12 +3382,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Анализ поведенческих данных на R и Python</t>
+          <t>Программирование на Python. Иллюстрированное руководство для детей</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Флоран Бюиссон</t>
+          <t>Кэрол Вордерман</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3399,12 +3399,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Как устроен Python. Гид для разработчиков, программистов и интересующихся</t>
+          <t>Криптография и взлом шифров на Python</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Мэтт Харрисон</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3416,12 +3416,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Вычислительная математика на смартфонах, коммуникаторах и ноутбуках с использованием программных сред Python: Учебное пособие.</t>
+          <t>Программирование на Python: базовый курс</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Игорь Соловьев</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3433,12 +3433,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Стандартная библиотека Python 3: справочник с примерами, 2-е издание</t>
+          <t>Легкий способ выучить Python</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Даг Хеллман</t>
+          <t>Зед А. Шоу</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3450,12 +3450,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Классические задачи Computer Science на языке Python</t>
+          <t>Путь Python. Черный пояс по разработке, масштабированию, тестированию и развертыванию</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Дэвид Копец</t>
+          <t>Джульен Данжу</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3467,12 +3467,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Криптография и взлом шифров на Python</t>
+          <t>Классические задачи Computer Science на языке Python</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Дэвид Копец</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3484,12 +3484,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Программирование на Python: базовый курс</t>
+          <t>Разработка приложений с графическим пользовательским интерфейсом на языке Python. Учебное пособие для СПО.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Сергей Букунов, Ольга Букунова</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3501,12 +3501,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Путь Python. Черный пояс по разработке, масштабированию, тестированию и развертыванию</t>
+          <t>Численные методы. Вычислительный практикум. Практическое применение численных методов при использовании алгоритмического языка Python</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Джульен Данжу</t>
+          <t>Петр Вабищевич</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Легкий способ выучить Python</t>
+          <t>Minecraft. Программируй свой мир на Python. 2-е межд. изд.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Зед А. Шоу</t>
+          <t>Дэвид Вэйл, Мартин О'Хэнлон</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3535,12 +3535,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Разработка приложений с графическим пользовательским интерфейсом на языке Python. Учебное пособие для СПО.</t>
+          <t>Программирование. Python. C++. Часть 1. Учебное пособие</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Сергей Букунов, Ольга Букунова</t>
+          <t>Константин Поляков</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3552,12 +3552,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Численные методы. Вычислительный практикум. Практическое применение численных методов при использовании алгоритмического языка Python</t>
+          <t>Программирование. Python. C++. Часть 2. Учебное пособие</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Петр Вабищевич</t>
+          <t>Константин Поляков</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3569,12 +3569,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Практикум по математической статистике. Проверка гипотез с использованием Excel, MatCalc, R и Python</t>
+          <t>Программирование. Python. C++. Часть 3. Учебное пособие</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Владимир Глебов</t>
+          <t>Константин Поляков</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3586,12 +3586,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Прикладной анализ текстовых данных на Python. Машинное обучение и создание приложений обработки естественного языка</t>
+          <t>Практикум по математической статистике. Проверка гипотез с использованием Excel, MatCalc, R и Python</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Бенджамин Бенгфорт, Ребекка Билбро, Тони Охеда</t>
+          <t>Владимир Глебов</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3603,12 +3603,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Django 2.1 Практика создания веб-сайтов на Python. Модели, контроллеры и шаблоны. Разграничение доступа. Аутентификация через социальные сети. Вывод миниатюр. Bootstrap. Captcha. Angular. Bbcode. Rest</t>
+          <t>Прикладной анализ текстовых данных на Python. Машинное обучение и создание приложений обработки естественного языка</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Владимир Дронов</t>
+          <t>Бенджамин Бенгфорт, Ребекка Билбро, Тони Охеда</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3620,12 +3620,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Глубокое обучение с подкреплением на Python. OpenAI Gym и TensorFlow для профи</t>
+          <t>Django 2.1 Практика создания веб-сайтов на Python. Модели, контроллеры и шаблоны. Разграничение доступа. Аутентификация через социальные сети. Вывод миниатюр. Bootstrap. Captcha. Angular. Bbcode. Rest</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Судхарсан Равичандиран</t>
+          <t>Владимир Дронов</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3637,12 +3637,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Машинное обучение с использованием Python. Сборник рецептов</t>
+          <t>Глубокое обучение с подкреплением на Python. OpenAI Gym и TensorFlow для профи</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Крис Элбон</t>
+          <t>Судхарсан Равичандиран</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3654,12 +3654,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Основы искусственного интеллекта в примерах на Python. Самоучитель</t>
+          <t>Машинное обучение с использованием Python. Сборник рецептов</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Анатолий Постолит</t>
+          <t>Крис Элбон</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3671,12 +3671,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Minecraft. Программируй свой мир на Python. 2-е межд. изд.</t>
+          <t>Обработка естественного языка. Python и spaCy на практике</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Дэвид Вэйл, Мартин О'Хэнлон</t>
+          <t>Юрий Васильев</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3688,12 +3688,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Программирование. Python. C++. Часть 1. Учебное пособие</t>
+          <t>Основы искусственного интеллекта в примерах на Python. Самоучитель</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Константин Поляков</t>
+          <t>Анатолий Постолит</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3705,12 +3705,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Программирование. Python. C++. Часть 2. Учебное пособие</t>
+          <t>Основы Data Science и Big Data. Python и наука о данных</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Константин Поляков</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3722,12 +3722,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Программирование. Python. C++. Часть 3. Учебное пособие</t>
+          <t>Django: практика создания Web-сайтов на Python</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Константин Поляков</t>
+          <t>Владимир Дронов</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3756,12 +3756,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Основы Data Science и Big Data. Python и наука о данных</t>
+          <t>Разработка с использованием квантовых компьютеров. Программирование квантовых машин в облаке: Python, Qiskit, Quantum Assembly language и IBM Qexperience</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Владимир Силва</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3773,12 +3773,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Обработка естественного языка. Python и spaCy на практике</t>
+          <t>Программирование для детей на языке Python</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Юрий Васильев</t>
+          <t>Александр Банкрашков</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3790,12 +3790,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Django: практика создания Web-сайтов на Python</t>
+          <t>Введение в машинное обучение с помощью Python. Руководство для специалистов по работе с данными</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Владимир Дронов</t>
+          <t>Андреас Мюллер</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3807,12 +3807,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Программирование для детей на языке Python</t>
+          <t>Основы алгоритмизации и программирования на Python</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Александр Банкрашков</t>
+          <t>Сергей Гуриков</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3824,12 +3824,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Введение в машинное обучение с помощью Python. Руководство для специалистов по работе с данными</t>
+          <t>Информатика. 8-9 классы. Начала программирования на языке Python. Дополнительные главы к учебникам</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Андреас Мюллер</t>
+          <t>Людмила Босова</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3841,12 +3841,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Информатика. 8-9 классы. Начала программирования на языке Python. Дополнительные главы к учебникам</t>
+          <t>Алгоритмы на графах. Использование языка Python</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Людмила Босова</t>
+          <t>Олег Мельников</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3858,12 +3858,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Разработка с использованием квантовых компьютеров. Программирование квантовых машин в облаке: Python, Qiskit, Quantum Assembly language и IBM Qexperience</t>
+          <t>Экономика на Python. Учебник</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Владимир Силва</t>
+          <t>Марина Хрипунова</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3875,12 +3875,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Алгоритмы на графах. Использование языка Python</t>
+          <t>Учимся программировать с примерами на Python</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Олег Мельников</t>
+          <t>Элизабет Фримен, Эрик Фримен</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3892,12 +3892,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Экономика на Python. Учебник</t>
+          <t>Глубокое обучение: легкая разработка проектов на Python</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Марина Хрипунова</t>
+          <t>Сет Вейдман</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3909,12 +3909,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Основы алгоритмизации и программирования на Python</t>
+          <t>Практикум по анализу данных на языках Python и R: Учебное пособие</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Сергей Гуриков</t>
+          <t>О. Баюк, Мариам Исаева, Максим Самсонкин</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3926,12 +3926,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Учимся программировать с примерами на Python</t>
+          <t>Машинное обучение: карманный справочник. Краткое руководство по методам структурированного машинного обучения на Python</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Элизабет Фримен, Эрик Фримен</t>
+          <t>Мэтт Харрисон</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3943,12 +3943,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Глубокое обучение: легкая разработка проектов на Python</t>
+          <t>Python. К вершинам мастерства</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Сет Вейдман</t>
+          <t>Лучано Рамальо</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3960,12 +3960,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Машинное обучение: карманный справочник. Краткое руководство по методам структурированного машинного обучения на Python</t>
+          <t>Python в системном администрировании UNIX и Linux</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Мэтт Харрисон</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3977,12 +3977,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Практикум по анализу данных на языках Python и R: Учебное пособие</t>
+          <t>Python и анализ данных</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>О. Баюк, Мариам Исаева, Максим Самсонкин</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3994,7 +3994,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Python в системном администрировании UNIX и Linux</t>
+          <t>Python для финансовых расчетов. Искусство работы с финансовыми данными</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4011,12 +4011,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Python. К вершинам мастерства</t>
+          <t>Python. Искусственный интеллект, большие данные и облачные вычисления</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Лучано Рамальо</t>
+          <t>Пол Дж. Дейтел</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4028,7 +4028,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Python и анализ данных</t>
+          <t>Python и наука о данных для чайников</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4045,12 +4045,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Python для финансовых расчетов. Искусство работы с финансовыми данными</t>
+          <t>Python и анализ данных. Первичная обработка данных с применением pandas, NumPy и Ipython</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Уэс Маккинни</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4062,12 +4062,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Python. Искусственный интеллект, большие данные и облачные вычисления</t>
+          <t>Python и машинное обучение</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Пол Дж. Дейтел</t>
+          <t>Себастьян Рашка</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4079,12 +4079,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Python и анализ данных. Первичная обработка данных с применением pandas, NumPy и Ipython</t>
+          <t>Python для чайников</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Уэс Маккинни</t>
+          <t>Джон Пол Мюллер</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4096,12 +4096,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Python и наука о данных для чайников</t>
+          <t>Python для детей и родителей</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Михаил Райтман</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4113,12 +4113,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Python и машинное обучение</t>
+          <t>Python. Великое программирование в Minecraft дп</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Себастьян Рашка</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4130,12 +4130,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Python для чайников</t>
+          <t>Python для непрограммистов. Самоучитель в примерах</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Джон Пол Мюллер</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4147,12 +4147,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Python для детей и родителей</t>
+          <t>Изучаем Python. Том 2</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Михаил Райтман</t>
+          <t>Марк Лутц</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Python для непрограммистов. Самоучитель в примерах</t>
+          <t>Программирование на языке Python: учебный курс</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Роберт Седжвик</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4181,7 +4181,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Python. Великое программирование в Minecraft дп</t>
+          <t>Построение систем машинного обучения на языке Python</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4198,7 +4198,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Изучаем Python. Том 2</t>
+          <t>Программирование на Python, том II, 4-е издание.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4215,12 +4215,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Программирование на языке Python: учебный курс</t>
+          <t>Изучаем Python. Том 1</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Роберт Седжвик</t>
+          <t>Марк Лутц</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4232,12 +4232,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Построение систем машинного обучения на языке Python</t>
+          <t>Автоматизация рутинных задач с помощью Python: практическое руководство для начинающих</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4249,12 +4249,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Программирование на Python, том II, 4-е издание.</t>
+          <t>Сверхбыстрый Python. Эффективные техники для работы с большими наборами данных</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Марк Лутц</t>
+          <t>Тиаго Антао</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4266,12 +4266,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Автоматизация рутинных задач с помощью Python: практическое руководство для начинающих</t>
+          <t>Алгоритмы. Справочник с примерами на C, C++, Java и Python, 2-е издание</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Гэри Поллис, Стэнли Селков, Джордж Хайнеманн</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4283,12 +4283,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Изучаем Python. Том 1</t>
+          <t>Разработка приложений с графическим пользовательским интерфейсом на языке Python. Учебное пособие для вузов</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Марк Лутц</t>
+          <t>Сергей Букунов, Ольга Букунова</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4300,12 +4300,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Сверхбыстрый Python. Эффективные техники для работы с большими наборами данных</t>
+          <t>Язык программирования Python. Учебное пособие</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Тиаго Антао</t>
+          <t>Роман Жуков</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4317,12 +4317,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Алгоритмы. Справочник с примерами на C, C++, Java и Python, 2-е издание</t>
+          <t>Искусственный интеллект с примерами на Python. Создание приложений искусственного интеллекта с помощью Python для взаимодействия с окружающим миром</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Гэри Поллис, Стэнли Селков, Джордж Хайнеманн</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4334,12 +4334,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Django. Разработка веб-приложений на Python. - Пер. с англ.</t>
+          <t>Численные методы. Вычислительный практикум. Практическое применение численных методов при использовании алгоритмического языка Python</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Петр Вабищевич</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4351,12 +4351,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Разработка приложений с графическим пользовательским интерфейсом на языке Python. Учебное пособие для вузов</t>
+          <t>Django. Разработка веб-приложений на Python. - Пер. с англ.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Сергей Букунов, Ольга Букунова</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4368,12 +4368,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Язык программирования Python. Учебное пособие</t>
+          <t>Автоматизация рутинных задач с помощью Python. Практическое руководство для начинающих. 2-е издание</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Роман Жуков</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4385,7 +4385,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Искусственный интеллект с примерами на Python. Создание приложений искусственного интеллекта с помощью Python для взаимодействия с окружающим миром</t>
+          <t>Алгебра и геометрия с примерами на Python. Учебное пособие для вузов</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -4402,12 +4402,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Численные методы. Вычислительный практикум. Практическое применение численных методов при использовании алгоритмического языка Python</t>
+          <t>Современный скрапинг веб-сайтов с помощью Python</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Петр Вабищевич</t>
+          <t>Райан Митчелл</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4419,12 +4419,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Автоматизация рутинных задач с помощью Python. Практическое руководство для начинающих. 2-е издание</t>
+          <t>Математика на Python. Часть I. Элементы линейной алгебры и аналитической геометрии. Учебно-методическое пособие</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Анна Балджы</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4436,12 +4436,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия с примерами на Python. Учебное пособие для вузов</t>
+          <t>Программируем с Minecraft. Создай свой мир с помощью Python</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Крейг Ричардсон</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4453,12 +4453,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Современный скрапинг веб-сайтов с помощью Python</t>
+          <t>Программирование на языке высокого уровня Python. Учебное пособие для СПО</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Райан Митчелл</t>
+          <t>Дмитрий Федоров</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4470,12 +4470,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Программируем с Minecraft. Создай свой мир с помощью Python</t>
+          <t>Прикладное машинное обучение без учителя с использованием Python</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Крейг Ричардсон</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4487,12 +4487,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Программирование на языке высокого уровня Python. Учебное пособие для СПО</t>
+          <t>Искусственный интеллект и компьютерное зрение. Реальные проекты на Python, Keras и TensorFlow</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Дмитрий Федоров</t>
+          <t>Анирад Коул, Казам Мехер, Ганджу Сиддха</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4504,7 +4504,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Прикладное машинное обучение без учителя с использованием Python</t>
+          <t>Глубокое обучение и TensorFlow для профессионалов. Математический подход к построению систем искусственного интеллекта на Python</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4521,12 +4521,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Искусственный интеллект и компьютерное зрение. Реальные проекты на Python, Keras и TensorFlow</t>
+          <t>Основы программирования на Python</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Анирад Коул, Казам Мехер, Ганджу Сиддха</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4538,12 +4538,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Глубокое обучение и TensorFlow для профессионалов. Математический подход к построению систем искусственного интеллекта на Python</t>
+          <t>Безопасность веб-приложений на PYTHON</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Деннис Бирн</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4555,7 +4555,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Основы программирования на Python</t>
+          <t>Web-программирование на Python. Учебное пособие для вузов, 2-е изд., стер.</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4572,49 +4572,15 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Безопасность веб-приложений на PYTHON</t>
+          <t>Программируем на Python в Minecraft</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Деннис Бирн</t>
+          <t>Не указан</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
-        <is>
-          <t>Не указана</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Web-программирование на Python. Учебное пособие для вузов, 2-е изд., стер.</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Не указан</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Не указана</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Программируем на Python в Minecraft</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Не указан</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
         <is>
           <t>Не указана</t>
         </is>
